--- a/biology/Zoologie/Adelpha_pithys/Adelpha_pithys.xlsx
+++ b/biology/Zoologie/Adelpha_pithys/Adelpha_pithys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha pithys  est une espèce de papillon de la famille des Nymphalidae, sous-famille des Limenitidinae et du genre des Adelpha.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha pithys a été décrit par Henry Walter Bates en 1864 sous le nom initial d'Heterochroa pithys[1].
-Noms vernaculaires
-Adelpha pithys se nomme Pithy Sister en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha pithys a été décrit par Henry Walter Bates en 1864 sous le nom initial d'Heterochroa pithys.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha pithys est un papillon au dessus marron orné d'une bande orange sur la moitié côté bord costal de l'aire postdiscale des ailes antérieures et d'une bande blanche allant aux ailes postérieures de l'angle anal au bord costal et se continuant aux ailes antérieures sur plus de la moitié de l'aire discale. L'angle anal des ailes postérieures est marqué d'une tache orange.
-Le revers est rose cuivré taché de rose nacré avec la même bande blanche que sur le dessus.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha pithys se nomme Pithy Sister en anglais.
 </t>
         </is>
       </c>
@@ -573,10 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha pithys est un papillon au dessus marron orné d'une bande orange sur la moitié côté bord costal de l'aire postdiscale des ailes antérieures et d'une bande blanche allant aux ailes postérieures de l'angle anal au bord costal et se continuant aux ailes antérieures sur plus de la moitié de l'aire discale. L'angle anal des ailes postérieures est marqué d'une tache orange.
+Le revers est rose cuivré taché de rose nacré avec la même bande blanche que sur le dessus.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,15 +624,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_pithys</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_pithys</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha pithys est présent au Mexique et au Guatemala[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha pithys est présent au Mexique et au Guatemala.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_pithys</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_pithys</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
